--- a/src/main/resources/excel/教学班学生导入模板.xlsx
+++ b/src/main/resources/excel/教学班学生导入模板.xlsx
@@ -362,8 +362,8 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
